--- a/results/[6_green_friendly]_#_inv_capacity.xlsx
+++ b/results/[6_green_friendly]_#_inv_capacity.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.02844188907515328</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04723243612432391</v>
+        <v>0.0767925000000001</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1886320774358237</v>
+        <v>0.4072877638625012</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374987</v>
+        <v>0.2494892361374989</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5481317832463299</v>
+        <v>0.5224279530531742</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2305472167536699</v>
+        <v>0.5729273469468261</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.567751726306496</v>
+        <v>11.81230257363055</v>
       </c>
       <c r="O2" t="n">
-        <v>2.611747606016051</v>
+        <v>2.569167174609038</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.134422398248747</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09420037655177572</v>
+        <v>0.09263141357332233</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4997656873239004</v>
+        <v>0.2374014999999999</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5598730767145255</v>
+        <v>0.4472572469468257</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.99278798324633</v>
+        <v>0.1550176530531738</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.784958041257166</v>
+        <v>5.761745064355102</v>
       </c>
       <c r="O2" t="n">
-        <v>2.969733417765074</v>
+        <v>1.463791048667069</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1059236780324885</v>
+        <v>0.0509340911268795</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2314397763990537</v>
+        <v>0.05174907978289767</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8981564126760996</v>
+        <v>0.2384590155169009</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.733257574721498</v>
+        <v>0.4896953000000001</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8158845390399996</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.188983626277648</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>20.13291926081092</v>
+        <v>8.485441261999803</v>
       </c>
       <c r="O2" t="n">
-        <v>16.82400706833629</v>
+        <v>5.722779367126569</v>
       </c>
     </row>
   </sheetData>

--- a/results/[6_green_friendly]_#_inv_capacity.xlsx
+++ b/results/[6_green_friendly]_#_inv_capacity.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0767925000000001</v>
+        <v>0.076183</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4072877638625012</v>
+        <v>0.4079574890751533</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374989</v>
+        <v>0.2494892361374915</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5224279530531742</v>
+        <v>0.5195864764512724</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5729273469468261</v>
+        <v>0.5703349</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>11.81230257363055</v>
+        <v>11.85261458383828</v>
       </c>
       <c r="O2" t="n">
-        <v>2.569167174609038</v>
+        <v>2.574986507049832</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09263141357332233</v>
+        <v>0.1296190864266778</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2374014999999999</v>
+        <v>0.3994426475317127</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4472572469468257</v>
+        <v>0.6524336873210169</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1550176530531738</v>
+        <v>0.328827</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.761745064355102</v>
+        <v>9.876658118432859</v>
       </c>
       <c r="O2" t="n">
-        <v>1.463791048667069</v>
+        <v>2.533576316016565</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0509340911268795</v>
+        <v>0.04870720107345581</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05174907978289767</v>
+        <v>0.05335530511476796</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2384590155169009</v>
+        <v>0.2305989524682872</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4896953000000001</v>
+        <v>0.4607661397679059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.485441261999803</v>
+        <v>9.047291122848666</v>
       </c>
       <c r="O2" t="n">
-        <v>5.722779367126569</v>
+        <v>6.165189263121612</v>
       </c>
     </row>
   </sheetData>

--- a/results/[6_green_friendly]_#_inv_capacity.xlsx
+++ b/results/[6_green_friendly]_#_inv_capacity.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.02844188907515328</v>
+        <v>0.1495756993711466</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04723243612432391</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.7586509850632225</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1886320774358237</v>
+        <v>0.31259354256</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.291494783244857</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374987</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.07258444233333332</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5481317832463299</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2305472167536699</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.567751726306496</v>
+        <v>8.467149099906097</v>
       </c>
       <c r="O2" t="n">
-        <v>2.611747606016051</v>
+        <v>3.188904671707916</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.134422398248747</v>
+        <v>0.07908922929700146</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09420037655177572</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.281780218504966</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4997656873239004</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.273576697429479</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1518550900809347</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5598730767145255</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.99278798324633</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.784958041257166</v>
+        <v>29.4699474257928</v>
       </c>
       <c r="O2" t="n">
-        <v>2.969733417765074</v>
+        <v>6.063726817699514</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1059236780324885</v>
+        <v>0.6651806420311935</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2314397763990537</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.806154781238413</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8981564126760996</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.06977922310875484</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1118213208083624</v>
       </c>
       <c r="I2" t="n">
-        <v>1.733257574721498</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8158845390399996</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.188983626277648</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>20.13291926081092</v>
+        <v>23.31358547326126</v>
       </c>
       <c r="O2" t="n">
-        <v>16.82400706833629</v>
+        <v>7.958928357093424</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[6_green_friendly]_#_inv_capacity.xlsx
+++ b/results/[6_green_friendly]_#_inv_capacity.xlsx
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.467149099906097</v>
+        <v>8.467149099906111</v>
       </c>
       <c r="O2" t="n">
         <v>3.188904671707916</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.07908922929700146</v>
+        <v>0.07908922929700046</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>29.4699474257928</v>
+        <v>29.46994742579276</v>
       </c>
       <c r="O2" t="n">
-        <v>6.063726817699514</v>
+        <v>6.06372681769952</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.6651806420311935</v>
+        <v>0.6651806420311943</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06977922310875484</v>
+        <v>0.06977922310875539</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1118213208083624</v>
+        <v>0.1118213208083648</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>23.31358547326126</v>
+        <v>23.31358547326129</v>
       </c>
       <c r="O2" t="n">
-        <v>7.958928357093424</v>
+        <v>7.958928357093312</v>
       </c>
     </row>
   </sheetData>

--- a/results/[6_green_friendly]_#_inv_capacity.xlsx
+++ b/results/[6_green_friendly]_#_inv_capacity.xlsx
@@ -535,13 +535,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374915</v>
+        <v>0.2494892361374993</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5195864764512724</v>
+        <v>0.5195864764512728</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>11.85261458383828</v>
+        <v>11.85261458383815</v>
       </c>
       <c r="O2" t="n">
-        <v>2.574986507049832</v>
+        <v>2.574986507049827</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1296190864266778</v>
+        <v>0.1296190864266777</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3994426475317127</v>
+        <v>0.399442647531712</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6524336873210169</v>
+        <v>0.6524336873210164</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.876658118432859</v>
+        <v>9.876658118432914</v>
       </c>
       <c r="O2" t="n">
-        <v>2.533576316016565</v>
+        <v>2.533576316016599</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04870720107345581</v>
+        <v>0.04870720107345802</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05335530511476796</v>
+        <v>0.05335530511476258</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2305989524682872</v>
+        <v>0.2305989524682879</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.047291122848666</v>
+        <v>9.047291122848801</v>
       </c>
       <c r="O2" t="n">
-        <v>6.165189263121612</v>
+        <v>6.165189263121587</v>
       </c>
     </row>
   </sheetData>
